--- a/figures/results/TCGA_survival.xlsx
+++ b/figures/results/TCGA_survival.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/sg2162_cam_ac_uk/Documents/backup/project/PanCIA/figures/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0009860FD4409E0F62355476585DCE3A8747CA77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7ED6B5-597A-8A40-B365-2E24A7DBEF15}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_44BDE4E95346BE0E62355476585DCE3A87477355" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D2F47AF-79BF-6E4E-847C-07743448E5A7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>extractor</t>
   </si>
@@ -40,7 +40,43 @@
     <t>Mean AUC</t>
   </si>
   <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>auprc</t>
+  </si>
+  <si>
+    <t>auroc</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>ImmuneSubtype.BiomedParse+None.BiomedParse+UNI.Mean+Mean</t>
+  </si>
+  <si>
+    <t>ImmuneSubtype.BiomedParse+None.Pyradiomics+UNI.None+Mean</t>
+  </si>
+  <si>
+    <t>ImmuneSubtype.BiomedParse.BiomedParse.Mean</t>
+  </si>
+  <si>
+    <t>ImmuneSubtype.BiomedParse.LVMMed.Mean</t>
+  </si>
+  <si>
+    <t>ImmuneSubtype.BiomedParse.Pyradiomics.None</t>
+  </si>
+  <si>
+    <t>ImmuneSubtype.LVMMed+UNI.Mean+Mean</t>
+  </si>
+  <si>
+    <t>ImmuneSubtype.None.UNI.Mean</t>
+  </si>
+  <si>
     <t>OS.BiomedParse+None.BiomedParse+UNI.Mean+Mean</t>
+  </si>
+  <si>
+    <t>OS.BiomedParse+None.LVMMed+UNI.Mean+Mean</t>
   </si>
   <si>
     <t>OS.BiomedParse+None.Pyradiomics+UNI.None+Mean</t>
@@ -419,16 +455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="2" max="2" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,694 +483,1626 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0.67333917177530334</v>
-      </c>
-      <c r="E2">
-        <v>0.59557586797958273</v>
-      </c>
-      <c r="F2">
-        <v>0.16912757997645081</v>
-      </c>
-      <c r="G2">
-        <v>0.69673264324714179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>0.52868845866437375</v>
+      </c>
+      <c r="I2">
+        <v>0.58106821608902803</v>
+      </c>
+      <c r="J2">
+        <v>0.8097074313617536</v>
+      </c>
+      <c r="K2">
+        <v>0.51977192171366926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0.69427912061217056</v>
-      </c>
-      <c r="E3">
-        <v>0.63978095559865478</v>
-      </c>
-      <c r="F3">
-        <v>0.20427105303495219</v>
-      </c>
-      <c r="G3">
-        <v>0.72564941257148186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0.59479526314327114</v>
+      </c>
+      <c r="I3">
+        <v>0.62657192196384592</v>
+      </c>
+      <c r="J3">
+        <v>0.83056264529602664</v>
+      </c>
+      <c r="K3">
+        <v>0.59270712468992826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0.64937537180249849</v>
-      </c>
-      <c r="E4">
-        <v>0.65056500494649983</v>
-      </c>
-      <c r="F4">
-        <v>0.18743522308412611</v>
-      </c>
-      <c r="G4">
-        <v>0.68818424816871826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0.63044873060370354</v>
+      </c>
+      <c r="I4">
+        <v>0.6412650246947732</v>
+      </c>
+      <c r="J4">
+        <v>0.85162810306013359</v>
+      </c>
+      <c r="K4">
+        <v>0.61015888378583572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>0.60891566265060237</v>
-      </c>
-      <c r="E5">
-        <v>0.66610692346135014</v>
-      </c>
-      <c r="F5">
-        <v>0.18978162503838661</v>
-      </c>
-      <c r="G5">
-        <v>0.62150358325099397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0.57007746088568922</v>
+      </c>
+      <c r="I5">
+        <v>0.5722105151130561</v>
+      </c>
+      <c r="J5">
+        <v>0.80517797608971087</v>
+      </c>
+      <c r="K5">
+        <v>0.55533974986222168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0.6695288930146206</v>
-      </c>
-      <c r="E6">
-        <v>0.69687977074946339</v>
-      </c>
-      <c r="F6">
-        <v>0.1989652740838547</v>
-      </c>
-      <c r="G6">
-        <v>0.69555141958757927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0.55088315207456828</v>
+      </c>
+      <c r="I6">
+        <v>0.593671051853496</v>
+      </c>
+      <c r="J6">
+        <v>0.84620648018760281</v>
+      </c>
+      <c r="K6">
+        <v>0.54324162679425836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0.68247216314274994</v>
-      </c>
-      <c r="E7">
-        <v>0.61271314537780641</v>
-      </c>
-      <c r="F7">
-        <v>0.17201466090389511</v>
-      </c>
-      <c r="G7">
-        <v>0.70614798659551048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0.53972941334748892</v>
+      </c>
+      <c r="I7">
+        <v>0.58303798727844014</v>
+      </c>
+      <c r="J7">
+        <v>0.81164133842846731</v>
+      </c>
+      <c r="K7">
+        <v>0.52984339940691627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0.67921778209644113</v>
-      </c>
-      <c r="E8">
-        <v>0.64913463094639967</v>
-      </c>
-      <c r="F8">
-        <v>0.20244112893690799</v>
-      </c>
-      <c r="G8">
-        <v>0.71048860710912187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0.60748940890193304</v>
+      </c>
+      <c r="I8">
+        <v>0.65293264879422264</v>
+      </c>
+      <c r="J8">
+        <v>0.8476289892061567</v>
+      </c>
+      <c r="K8">
+        <v>0.60720308723205763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>0.66555621653777508</v>
-      </c>
-      <c r="E9">
-        <v>0.67200973715390111</v>
-      </c>
-      <c r="F9">
-        <v>0.18223926917641381</v>
-      </c>
-      <c r="G9">
-        <v>0.69599771643044184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0.6014866289671833</v>
+      </c>
+      <c r="I9">
+        <v>0.62702905149482091</v>
+      </c>
+      <c r="J9">
+        <v>0.84644752599396611</v>
+      </c>
+      <c r="K9">
+        <v>0.57610091743119263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>0.67698795180722893</v>
-      </c>
-      <c r="E10">
-        <v>0.7120226812842908</v>
-      </c>
-      <c r="F10">
-        <v>0.17808961331525031</v>
-      </c>
-      <c r="G10">
-        <v>0.6918330596865605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>0.58396634977457818</v>
+      </c>
+      <c r="I10">
+        <v>0.5842280165252397</v>
+      </c>
+      <c r="J10">
+        <v>0.80515717745344706</v>
+      </c>
+      <c r="K10">
+        <v>0.57369049051816356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>0.6902993734045022</v>
-      </c>
-      <c r="E11">
-        <v>0.74080594585050841</v>
-      </c>
-      <c r="F11">
-        <v>0.19598824916248031</v>
-      </c>
-      <c r="G11">
-        <v>0.71709380086292085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>0.55088315207456828</v>
+      </c>
+      <c r="I11">
+        <v>0.593671051853496</v>
+      </c>
+      <c r="J11">
+        <v>0.84620648018760281</v>
+      </c>
+      <c r="K11">
+        <v>0.54324162679425836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0.58738896534467655</v>
-      </c>
-      <c r="E12">
-        <v>0.61541493999789876</v>
-      </c>
-      <c r="F12">
-        <v>0.18925135172386601</v>
-      </c>
-      <c r="G12">
-        <v>0.58064896826342427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>0.46949310427021962</v>
+      </c>
+      <c r="I12">
+        <v>0.44512580835052851</v>
+      </c>
+      <c r="J12">
+        <v>0.70648074800920102</v>
+      </c>
+      <c r="K12">
+        <v>0.45769587835134051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>0.60901251062796069</v>
-      </c>
-      <c r="E13">
-        <v>0.60181581344751378</v>
-      </c>
-      <c r="F13">
-        <v>0.2179076320256185</v>
-      </c>
-      <c r="G13">
-        <v>0.62568391504805621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>0.38142540020970161</v>
+      </c>
+      <c r="I13">
+        <v>0.41433536345108979</v>
+      </c>
+      <c r="J13">
+        <v>0.66753696335894785</v>
+      </c>
+      <c r="K13">
+        <v>0.3834668466329908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>0.58762641284949435</v>
-      </c>
-      <c r="E14">
-        <v>0.5701294580997327</v>
-      </c>
-      <c r="F14">
-        <v>0.2077496992850254</v>
-      </c>
-      <c r="G14">
-        <v>0.60322880004704627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>0.42480283813643471</v>
+      </c>
+      <c r="I14">
+        <v>0.43046966819869797</v>
+      </c>
+      <c r="J14">
+        <v>0.69599245002550425</v>
+      </c>
+      <c r="K14">
+        <v>0.42613246805624311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>0.53638554216867473</v>
-      </c>
-      <c r="E15">
-        <v>0.54088346890329397</v>
-      </c>
-      <c r="F15">
-        <v>0.20378597982138771</v>
-      </c>
-      <c r="G15">
-        <v>0.54034117416700889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>0.44764736505763858</v>
+      </c>
+      <c r="I15">
+        <v>0.46444274680977271</v>
+      </c>
+      <c r="J15">
+        <v>0.71280620074856671</v>
+      </c>
+      <c r="K15">
+        <v>0.43165658181611799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>0.6342538872128104</v>
-      </c>
-      <c r="E16">
-        <v>0.61569986186252224</v>
-      </c>
-      <c r="F16">
-        <v>0.19841453137181339</v>
-      </c>
-      <c r="G16">
-        <v>0.65667628594829075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>0.32041709257723783</v>
+      </c>
+      <c r="I16">
+        <v>0.45712345974348928</v>
+      </c>
+      <c r="J16">
+        <v>0.72052809889076008</v>
+      </c>
+      <c r="K16">
+        <v>0.32642605659847029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0.64856749655948953</v>
-      </c>
-      <c r="E17">
-        <v>0.64753404288411742</v>
-      </c>
-      <c r="F17">
-        <v>0.19230496411330869</v>
-      </c>
-      <c r="G17">
-        <v>0.64997278838091055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>0.38838912944610421</v>
+      </c>
+      <c r="I17">
+        <v>0.44689327772279108</v>
+      </c>
+      <c r="J17">
+        <v>0.70453567583008148</v>
+      </c>
+      <c r="K17">
+        <v>0.38716411281367968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>0.62662455969877318</v>
-      </c>
-      <c r="E18">
-        <v>0.65035011053933123</v>
-      </c>
-      <c r="F18">
-        <v>0.2161761065152733</v>
-      </c>
-      <c r="G18">
-        <v>0.6433928342140075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>0.44379022387175743</v>
+      </c>
+      <c r="I18">
+        <v>0.44578220244898481</v>
+      </c>
+      <c r="J18">
+        <v>0.71704985110092878</v>
+      </c>
+      <c r="K18">
+        <v>0.44505778760065318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>0.58001189767995243</v>
-      </c>
-      <c r="E19">
-        <v>0.64687934692044946</v>
-      </c>
-      <c r="F19">
-        <v>0.2169628413923016</v>
-      </c>
-      <c r="G19">
-        <v>0.60179065353206951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>0.42175328188772337</v>
+      </c>
+      <c r="I19">
+        <v>0.42856274160935448</v>
+      </c>
+      <c r="J19">
+        <v>0.71555670051229092</v>
+      </c>
+      <c r="K19">
+        <v>0.42345261785493732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20">
-        <v>0.61048192771084342</v>
-      </c>
-      <c r="E20">
-        <v>0.58889285489425813</v>
-      </c>
-      <c r="F20">
-        <v>0.20297839454920541</v>
-      </c>
-      <c r="G20">
-        <v>0.6208208774869618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>0.38279562580703658</v>
+      </c>
+      <c r="I20">
+        <v>0.42964200513232298</v>
+      </c>
+      <c r="J20">
+        <v>0.68730412903004701</v>
+      </c>
+      <c r="K20">
+        <v>0.37928543566756168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21">
-        <v>0.64632165235553496</v>
-      </c>
-      <c r="E21">
-        <v>0.61276327468422653</v>
-      </c>
-      <c r="F21">
-        <v>0.22066037983191461</v>
-      </c>
-      <c r="G21">
-        <v>0.65955219720525204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>0.44852751930672718</v>
+      </c>
+      <c r="I21">
+        <v>0.44630750217994408</v>
+      </c>
+      <c r="J21">
+        <v>0.70361927893678644</v>
+      </c>
+      <c r="K21">
+        <v>0.44787564616161563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0.55886400600525454</v>
-      </c>
-      <c r="E22">
-        <v>0.50954356633887954</v>
-      </c>
-      <c r="F22">
-        <v>0.1797906756853497</v>
-      </c>
-      <c r="G22">
-        <v>0.55949251317740323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>0.46084181864179502</v>
+      </c>
+      <c r="I22">
+        <v>0.40143879021267692</v>
+      </c>
+      <c r="J22">
+        <v>0.68033797719914935</v>
+      </c>
+      <c r="K22">
+        <v>0.43607497689163432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>0.58034738248512086</v>
-      </c>
-      <c r="E23">
-        <v>0.60483299660768541</v>
-      </c>
-      <c r="F23">
-        <v>0.22051807405753199</v>
-      </c>
-      <c r="G23">
-        <v>0.58042575926587114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>0.30760303379938547</v>
+      </c>
+      <c r="I23">
+        <v>0.37053975811831202</v>
+      </c>
+      <c r="J23">
+        <v>0.66301446513802698</v>
+      </c>
+      <c r="K23">
+        <v>0.28993687629015391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>0.60725758477096969</v>
-      </c>
-      <c r="E24">
-        <v>0.56420830682511014</v>
-      </c>
-      <c r="F24">
-        <v>0.20124187376099659</v>
-      </c>
-      <c r="G24">
-        <v>0.6117844841003206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>0.36158893524550728</v>
+      </c>
+      <c r="I24">
+        <v>0.4219974385088831</v>
+      </c>
+      <c r="J24">
+        <v>0.68524889337701178</v>
+      </c>
+      <c r="K24">
+        <v>0.3605806377212708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25">
-        <v>0.58578313253012049</v>
-      </c>
-      <c r="E25">
-        <v>0.56195748776350019</v>
-      </c>
-      <c r="F25">
-        <v>0.19617188496443219</v>
-      </c>
-      <c r="G25">
-        <v>0.57279618587085468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>0.39604765957571259</v>
+      </c>
+      <c r="I25">
+        <v>0.41257902946588382</v>
+      </c>
+      <c r="J25">
+        <v>0.69412355177264107</v>
+      </c>
+      <c r="K25">
+        <v>0.37968137254901962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>0.61545602227895102</v>
-      </c>
-      <c r="E26">
-        <v>0.65056217530656635</v>
-      </c>
-      <c r="F26">
-        <v>0.20374402659545321</v>
-      </c>
-      <c r="G26">
-        <v>0.62213617668541576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>0.40708861425882781</v>
+      </c>
+      <c r="I26">
+        <v>0.40060507047340871</v>
+      </c>
+      <c r="J26">
+        <v>0.67786738286438053</v>
+      </c>
+      <c r="K26">
+        <v>0.39326563788294322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0.67333917177530334</v>
-      </c>
-      <c r="E27">
-        <v>0.6014271215904895</v>
-      </c>
-      <c r="F27">
-        <v>0.17236893642773879</v>
-      </c>
-      <c r="G27">
-        <v>0.69321902458574336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>0.53972941334748892</v>
+      </c>
+      <c r="I27">
+        <v>0.58303798727844014</v>
+      </c>
+      <c r="J27">
+        <v>0.81164133842846731</v>
+      </c>
+      <c r="K27">
+        <v>0.52984339940691627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28">
-        <v>0.69938054172233699</v>
-      </c>
-      <c r="E28">
-        <v>0.64329758923690961</v>
-      </c>
-      <c r="F28">
-        <v>0.19707670731770191</v>
-      </c>
-      <c r="G28">
-        <v>0.73256636921345208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>0.60748940890193304</v>
+      </c>
+      <c r="I28">
+        <v>0.65293264879422264</v>
+      </c>
+      <c r="J28">
+        <v>0.8476289892061567</v>
+      </c>
+      <c r="K28">
+        <v>0.60720308723205763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29">
-        <v>0.65056513979773944</v>
-      </c>
-      <c r="E29">
-        <v>0.6519873280111701</v>
-      </c>
-      <c r="F29">
-        <v>0.18584347673270901</v>
-      </c>
-      <c r="G29">
-        <v>0.69170954420172814</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>0.6014866289671833</v>
+      </c>
+      <c r="I29">
+        <v>0.62702905149482091</v>
+      </c>
+      <c r="J29">
+        <v>0.84644752599396611</v>
+      </c>
+      <c r="K29">
+        <v>0.57610091743119263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30">
-        <v>0.64481927710843379</v>
-      </c>
-      <c r="E30">
-        <v>0.69317513514847384</v>
-      </c>
-      <c r="F30">
-        <v>0.18257404653025869</v>
-      </c>
-      <c r="G30">
-        <v>0.66883012166147515</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>0.58396634977457818</v>
+      </c>
+      <c r="I30">
+        <v>0.5842280165252397</v>
+      </c>
+      <c r="J30">
+        <v>0.80515717745344706</v>
+      </c>
+      <c r="K30">
+        <v>0.57369049051816356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31">
+      <c r="H31">
+        <v>0.55088315207456828</v>
+      </c>
+      <c r="I31">
+        <v>0.593671051853496</v>
+      </c>
+      <c r="J31">
+        <v>0.84620648018760281</v>
+      </c>
+      <c r="K31">
+        <v>0.54324162679425836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.53972941334748892</v>
+      </c>
+      <c r="I32">
+        <v>0.58303798727844014</v>
+      </c>
+      <c r="J32">
+        <v>0.81164133842846731</v>
+      </c>
+      <c r="K32">
+        <v>0.52984339940691627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.60748940890193304</v>
+      </c>
+      <c r="I33">
+        <v>0.65293264879422264</v>
+      </c>
+      <c r="J33">
+        <v>0.8476289892061567</v>
+      </c>
+      <c r="K33">
+        <v>0.60720308723205763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0.6014866289671833</v>
+      </c>
+      <c r="I34">
+        <v>0.62702905149482091</v>
+      </c>
+      <c r="J34">
+        <v>0.84644752599396611</v>
+      </c>
+      <c r="K34">
+        <v>0.57610091743119263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>0.58396634977457818</v>
+      </c>
+      <c r="I35">
+        <v>0.5842280165252397</v>
+      </c>
+      <c r="J35">
+        <v>0.80515717745344706</v>
+      </c>
+      <c r="K35">
+        <v>0.57369049051816356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>0.55088315207456828</v>
+      </c>
+      <c r="I36">
+        <v>0.593671051853496</v>
+      </c>
+      <c r="J36">
+        <v>0.84620648018760281</v>
+      </c>
+      <c r="K36">
+        <v>0.54324162679425836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0.67333917177530334</v>
+      </c>
+      <c r="E37">
+        <v>0.59557586797958273</v>
+      </c>
+      <c r="F37">
+        <v>0.16912757997645081</v>
+      </c>
+      <c r="G37">
+        <v>0.69673264324714179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.69427912061217056</v>
+      </c>
+      <c r="E38">
+        <v>0.63978095559865478</v>
+      </c>
+      <c r="F38">
+        <v>0.20427105303495219</v>
+      </c>
+      <c r="G38">
+        <v>0.72564941257148186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0.64937537180249849</v>
+      </c>
+      <c r="E39">
+        <v>0.65056500494649983</v>
+      </c>
+      <c r="F39">
+        <v>0.18743522308412611</v>
+      </c>
+      <c r="G39">
+        <v>0.68818424816871826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0.60891566265060237</v>
+      </c>
+      <c r="E40">
+        <v>0.66610692346135014</v>
+      </c>
+      <c r="F40">
+        <v>0.18978162503838661</v>
+      </c>
+      <c r="G40">
+        <v>0.62150358325099397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>0.6695288930146206</v>
+      </c>
+      <c r="E41">
+        <v>0.69687977074946339</v>
+      </c>
+      <c r="F41">
+        <v>0.1989652740838547</v>
+      </c>
+      <c r="G41">
+        <v>0.69555141958757927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0.68159639684724138</v>
+      </c>
+      <c r="E42">
+        <v>0.68519379698872174</v>
+      </c>
+      <c r="F42">
+        <v>0.178038975891566</v>
+      </c>
+      <c r="G42">
+        <v>0.69548477784015028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.66962225191303293</v>
+      </c>
+      <c r="E43">
+        <v>0.64568988119318316</v>
+      </c>
+      <c r="F43">
+        <v>0.21470220636943571</v>
+      </c>
+      <c r="G43">
+        <v>0.69441956431195662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>0.64176085663295657</v>
+      </c>
+      <c r="E44">
+        <v>0.68159003433110077</v>
+      </c>
+      <c r="F44">
+        <v>0.21630804464334069</v>
+      </c>
+      <c r="G44">
+        <v>0.6763796792196175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>0.64493975903614453</v>
+      </c>
+      <c r="E45">
+        <v>0.69799564966732019</v>
+      </c>
+      <c r="F45">
+        <v>0.18737836240595721</v>
+      </c>
+      <c r="G45">
+        <v>0.65222521164591463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>0.66790438616848458</v>
+      </c>
+      <c r="E46">
+        <v>0.6661571115399969</v>
+      </c>
+      <c r="F46">
+        <v>0.21814201548907969</v>
+      </c>
+      <c r="G46">
+        <v>0.68868311439210339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0.68247216314274994</v>
+      </c>
+      <c r="E47">
+        <v>0.61271314537780641</v>
+      </c>
+      <c r="F47">
+        <v>0.17201466090389511</v>
+      </c>
+      <c r="G47">
+        <v>0.70614798659551048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0.67921778209644113</v>
+      </c>
+      <c r="E48">
+        <v>0.64913463094639967</v>
+      </c>
+      <c r="F48">
+        <v>0.20244112893690799</v>
+      </c>
+      <c r="G48">
+        <v>0.71048860710912187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>0.66555621653777508</v>
+      </c>
+      <c r="E49">
+        <v>0.67200973715390111</v>
+      </c>
+      <c r="F49">
+        <v>0.18223926917641381</v>
+      </c>
+      <c r="G49">
+        <v>0.69599771643044184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>0.67698795180722893</v>
+      </c>
+      <c r="E50">
+        <v>0.7120226812842908</v>
+      </c>
+      <c r="F50">
+        <v>0.17808961331525031</v>
+      </c>
+      <c r="G50">
+        <v>0.6918330596865605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>0.6902993734045022</v>
+      </c>
+      <c r="E51">
+        <v>0.74080594585050841</v>
+      </c>
+      <c r="F51">
+        <v>0.19598824916248031</v>
+      </c>
+      <c r="G51">
+        <v>0.71709380086292085</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0.58738896534467655</v>
+      </c>
+      <c r="E52">
+        <v>0.61541493999789876</v>
+      </c>
+      <c r="F52">
+        <v>0.18925135172386601</v>
+      </c>
+      <c r="G52">
+        <v>0.58064896826342427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0.60901251062796069</v>
+      </c>
+      <c r="E53">
+        <v>0.60181581344751378</v>
+      </c>
+      <c r="F53">
+        <v>0.2179076320256185</v>
+      </c>
+      <c r="G53">
+        <v>0.62568391504805621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>0.58762641284949435</v>
+      </c>
+      <c r="E54">
+        <v>0.5701294580997327</v>
+      </c>
+      <c r="F54">
+        <v>0.2077496992850254</v>
+      </c>
+      <c r="G54">
+        <v>0.60322880004704627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>0.53638554216867473</v>
+      </c>
+      <c r="E55">
+        <v>0.54088346890329397</v>
+      </c>
+      <c r="F55">
+        <v>0.20378597982138771</v>
+      </c>
+      <c r="G55">
+        <v>0.54034117416700889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>0.6342538872128104</v>
+      </c>
+      <c r="E56">
+        <v>0.61569986186252224</v>
+      </c>
+      <c r="F56">
+        <v>0.19841453137181339</v>
+      </c>
+      <c r="G56">
+        <v>0.65667628594829075</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.64856749655948953</v>
+      </c>
+      <c r="E57">
+        <v>0.64753404288411742</v>
+      </c>
+      <c r="F57">
+        <v>0.19230496411330869</v>
+      </c>
+      <c r="G57">
+        <v>0.64997278838091055</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.62662455969877318</v>
+      </c>
+      <c r="E58">
+        <v>0.65035011053933123</v>
+      </c>
+      <c r="F58">
+        <v>0.2161761065152733</v>
+      </c>
+      <c r="G58">
+        <v>0.6433928342140075</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0.58001189767995243</v>
+      </c>
+      <c r="E59">
+        <v>0.64687934692044946</v>
+      </c>
+      <c r="F59">
+        <v>0.2169628413923016</v>
+      </c>
+      <c r="G59">
+        <v>0.60179065353206951</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>0.61048192771084342</v>
+      </c>
+      <c r="E60">
+        <v>0.58889285489425813</v>
+      </c>
+      <c r="F60">
+        <v>0.20297839454920541</v>
+      </c>
+      <c r="G60">
+        <v>0.6208208774869618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>0.64632165235553496</v>
+      </c>
+      <c r="E61">
+        <v>0.61276327468422653</v>
+      </c>
+      <c r="F61">
+        <v>0.22066037983191461</v>
+      </c>
+      <c r="G61">
+        <v>0.65955219720525204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.55886400600525454</v>
+      </c>
+      <c r="E62">
+        <v>0.50954356633887954</v>
+      </c>
+      <c r="F62">
+        <v>0.1797906756853497</v>
+      </c>
+      <c r="G62">
+        <v>0.55949251317740323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.58034738248512086</v>
+      </c>
+      <c r="E63">
+        <v>0.60483299660768541</v>
+      </c>
+      <c r="F63">
+        <v>0.22051807405753199</v>
+      </c>
+      <c r="G63">
+        <v>0.58042575926587114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>0.60725758477096969</v>
+      </c>
+      <c r="E64">
+        <v>0.56420830682511014</v>
+      </c>
+      <c r="F64">
+        <v>0.20124187376099659</v>
+      </c>
+      <c r="G64">
+        <v>0.6117844841003206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>0.58578313253012049</v>
+      </c>
+      <c r="E65">
+        <v>0.56195748776350019</v>
+      </c>
+      <c r="F65">
+        <v>0.19617188496443219</v>
+      </c>
+      <c r="G65">
+        <v>0.57279618587085468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>0.61545602227895102</v>
+      </c>
+      <c r="E66">
+        <v>0.65056217530656635</v>
+      </c>
+      <c r="F66">
+        <v>0.20374402659545321</v>
+      </c>
+      <c r="G66">
+        <v>0.62213617668541576</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0.67333917177530334</v>
+      </c>
+      <c r="E67">
+        <v>0.6014271215904895</v>
+      </c>
+      <c r="F67">
+        <v>0.17236893642773879</v>
+      </c>
+      <c r="G67">
+        <v>0.69321902458574336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0.69938054172233699</v>
+      </c>
+      <c r="E68">
+        <v>0.64329758923690961</v>
+      </c>
+      <c r="F68">
+        <v>0.19707670731770191</v>
+      </c>
+      <c r="G68">
+        <v>0.73256636921345208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>0.65056513979773944</v>
+      </c>
+      <c r="E69">
+        <v>0.6519873280111701</v>
+      </c>
+      <c r="F69">
+        <v>0.18584347673270901</v>
+      </c>
+      <c r="G69">
+        <v>0.69170954420172814</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>0.64481927710843379</v>
+      </c>
+      <c r="E70">
+        <v>0.69317513514847384</v>
+      </c>
+      <c r="F70">
+        <v>0.18257404653025869</v>
+      </c>
+      <c r="G70">
+        <v>0.66883012166147515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
         <v>0.67080529125087029</v>
       </c>
-      <c r="E31">
+      <c r="E71">
         <v>0.70442848507608147</v>
       </c>
-      <c r="F31">
+      <c r="F71">
         <v>0.19970596025877169</v>
       </c>
-      <c r="G31">
+      <c r="G71">
         <v>0.69557825497092962</v>
       </c>
     </row>

--- a/figures/results/TCGA_survival.xlsx
+++ b/figures/results/TCGA_survival.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/sg2162_cam_ac_uk/Documents/backup/project/PanCIA/figures/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_44BDE4E95346BE0E62355476585DCE3A87477355" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D2F47AF-79BF-6E4E-847C-07743448E5A7}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_74B51CC711519E0E62355476585DCE3A874761FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38DDD5E0-E1C9-2C4C-8EDD-9D49748262FB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>extractor</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>OS.None.UNI.Mean</t>
+  </si>
+  <si>
+    <t>PrimaryDisease.BiomedParse+None.BiomedParse+UNI.Mean+Mean</t>
+  </si>
+  <si>
+    <t>PrimaryDisease.BiomedParse.BiomedParse.Mean</t>
+  </si>
+  <si>
+    <t>PrimaryDisease.BiomedParse.LVMMed.Mean</t>
+  </si>
+  <si>
+    <t>PrimaryDisease.BiomedParse.Pyradiomics.None</t>
+  </si>
+  <si>
+    <t>PrimaryDisease.None.UNI.Mean</t>
   </si>
 </sst>
 </file>
@@ -455,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="67.83203125" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1945,7 +1960,7 @@
         <v>0.6117844841003206</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1968,7 +1983,7 @@
         <v>0.57279618587085468</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1991,7 +2006,7 @@
         <v>0.62213617668541576</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2014,7 +2029,7 @@
         <v>0.69321902458574336</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2037,7 +2052,7 @@
         <v>0.73256636921345208</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2060,7 +2075,7 @@
         <v>0.69170954420172814</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2083,7 +2098,7 @@
         <v>0.66883012166147515</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2104,6 +2119,581 @@
       </c>
       <c r="G71">
         <v>0.69557825497092962</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.9521326608446582</v>
+      </c>
+      <c r="I72">
+        <v>0.98078155764981889</v>
+      </c>
+      <c r="J72">
+        <v>0.99913098456934413</v>
+      </c>
+      <c r="K72">
+        <v>0.94917777829409877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0.9084540197975961</v>
+      </c>
+      <c r="I73">
+        <v>0.95512943448206289</v>
+      </c>
+      <c r="J73">
+        <v>0.99748172039914118</v>
+      </c>
+      <c r="K73">
+        <v>0.90980202780028741</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>0.9761871151622703</v>
+      </c>
+      <c r="I74">
+        <v>0.99566867399412051</v>
+      </c>
+      <c r="J74">
+        <v>0.9994253291948072</v>
+      </c>
+      <c r="K74">
+        <v>0.97909407821039862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>0.94711779448621558</v>
+      </c>
+      <c r="I75">
+        <v>0.98604997341839451</v>
+      </c>
+      <c r="J75">
+        <v>0.99937147246789804</v>
+      </c>
+      <c r="K75">
+        <v>0.94789691045010183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>0.90289331066545842</v>
+      </c>
+      <c r="I76">
+        <v>0.97165668887088619</v>
+      </c>
+      <c r="J76">
+        <v>0.9983364599644291</v>
+      </c>
+      <c r="K76">
+        <v>0.90204566482000403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0.63168226262374672</v>
+      </c>
+      <c r="I77">
+        <v>0.6955359626208425</v>
+      </c>
+      <c r="J77">
+        <v>0.95370065546377025</v>
+      </c>
+      <c r="K77">
+        <v>0.63042562995985751</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0.68448567069848543</v>
+      </c>
+      <c r="I78">
+        <v>0.73013989326564643</v>
+      </c>
+      <c r="J78">
+        <v>0.96286998552359326</v>
+      </c>
+      <c r="K78">
+        <v>0.67147420073618558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>0.64079937594157932</v>
+      </c>
+      <c r="I79">
+        <v>0.70879546782316294</v>
+      </c>
+      <c r="J79">
+        <v>0.9596233686880401</v>
+      </c>
+      <c r="K79">
+        <v>0.62882170233234069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>0.69670765076943575</v>
+      </c>
+      <c r="I80">
+        <v>0.66129064812594029</v>
+      </c>
+      <c r="J80">
+        <v>0.94986799081381013</v>
+      </c>
+      <c r="K80">
+        <v>0.6746929452213688</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>0.63329274154707293</v>
+      </c>
+      <c r="I81">
+        <v>0.7237406797765753</v>
+      </c>
+      <c r="J81">
+        <v>0.9638885101917124</v>
+      </c>
+      <c r="K81">
+        <v>0.61922653094628632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0.61979410537762936</v>
+      </c>
+      <c r="I82">
+        <v>0.72705860561634206</v>
+      </c>
+      <c r="J82">
+        <v>0.95666755150866778</v>
+      </c>
+      <c r="K82">
+        <v>0.61502096037597875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0.68572846886021133</v>
+      </c>
+      <c r="I83">
+        <v>0.64851303735702803</v>
+      </c>
+      <c r="J83">
+        <v>0.94628172283685497</v>
+      </c>
+      <c r="K83">
+        <v>0.65771103496440086</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>0.64787395507402046</v>
+      </c>
+      <c r="I84">
+        <v>0.68634403342561412</v>
+      </c>
+      <c r="J84">
+        <v>0.94629215023720037</v>
+      </c>
+      <c r="K84">
+        <v>0.63915416517959123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>0.63361479094561801</v>
+      </c>
+      <c r="I85">
+        <v>0.66763013789381787</v>
+      </c>
+      <c r="J85">
+        <v>0.93759936364495933</v>
+      </c>
+      <c r="K85">
+        <v>0.61177307640023249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>0.59576141322627107</v>
+      </c>
+      <c r="I86">
+        <v>0.67088124751311251</v>
+      </c>
+      <c r="J86">
+        <v>0.94976862550907126</v>
+      </c>
+      <c r="K86">
+        <v>0.5900893951891546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0.48835112044494189</v>
+      </c>
+      <c r="I87">
+        <v>0.57481616323472218</v>
+      </c>
+      <c r="J87">
+        <v>0.9172336814695079</v>
+      </c>
+      <c r="K87">
+        <v>0.49415669161296077</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0.53297779551457225</v>
+      </c>
+      <c r="I88">
+        <v>0.57048806662220652</v>
+      </c>
+      <c r="J88">
+        <v>0.90714516933956602</v>
+      </c>
+      <c r="K88">
+        <v>0.53582172849414234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>0.58295759003506631</v>
+      </c>
+      <c r="I89">
+        <v>0.60891949116252919</v>
+      </c>
+      <c r="J89">
+        <v>0.91076990233282173</v>
+      </c>
+      <c r="K89">
+        <v>0.5747520995222859</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>0.57051286224218556</v>
+      </c>
+      <c r="I90">
+        <v>0.58677816850754494</v>
+      </c>
+      <c r="J90">
+        <v>0.88854710703889972</v>
+      </c>
+      <c r="K90">
+        <v>0.54862364782188033</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>0.47370801682668312</v>
+      </c>
+      <c r="I91">
+        <v>0.53728091951722323</v>
+      </c>
+      <c r="J91">
+        <v>0.89062457706611919</v>
+      </c>
+      <c r="K91">
+        <v>0.46549397395633141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0.9161143888015415</v>
+      </c>
+      <c r="I92">
+        <v>0.97827435291836584</v>
+      </c>
+      <c r="J92">
+        <v>0.99837737475264476</v>
+      </c>
+      <c r="K92">
+        <v>0.91822031458626241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0.9084540197975961</v>
+      </c>
+      <c r="I93">
+        <v>0.95390415975678822</v>
+      </c>
+      <c r="J93">
+        <v>0.99747883341729793</v>
+      </c>
+      <c r="K93">
+        <v>0.90641642092595875</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>0.9672202535638299</v>
+      </c>
+      <c r="I94">
+        <v>0.99422077397470654</v>
+      </c>
+      <c r="J94">
+        <v>0.99938091077525537</v>
+      </c>
+      <c r="K94">
+        <v>0.97068839808499363</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>0.92389972515830654</v>
+      </c>
+      <c r="I95">
+        <v>0.97757336005084983</v>
+      </c>
+      <c r="J95">
+        <v>0.99815251477690625</v>
+      </c>
+      <c r="K95">
+        <v>0.92412496631979812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>0.93774179551394321</v>
+      </c>
+      <c r="I96">
+        <v>0.97080994564658751</v>
+      </c>
+      <c r="J96">
+        <v>0.99793608152648416</v>
+      </c>
+      <c r="K96">
+        <v>0.93913330164138686</v>
       </c>
     </row>
   </sheetData>

--- a/figures/results/TCGA_survival.xlsx
+++ b/figures/results/TCGA_survival.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/sg2162_cam_ac_uk/Documents/backup/project/PanCIA/figures/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_74B51CC711519E0E62355476585DCE3A874761FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38DDD5E0-E1C9-2C4C-8EDD-9D49748262FB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0FA1584DD556BA0E62355476585DCE3A8747E133" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E61CB08-D322-1042-9BC7-8170E3C0E8D4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="34">
   <si>
     <t>extractor</t>
   </si>
@@ -40,37 +40,46 @@
     <t>Mean AUC</t>
   </si>
   <si>
-    <t>acc</t>
+    <t>DFI.BiomedParse+None.BiomedParse+UNI.Mean+Mean</t>
   </si>
   <si>
-    <t>auprc</t>
+    <t>DFI.BiomedParse+None.LVMMed+UNI.Mean+Mean</t>
   </si>
   <si>
-    <t>auroc</t>
+    <t>DFI.BiomedParse+None.Pyradiomics+UNI.None+Mean</t>
   </si>
   <si>
-    <t>f1</t>
+    <t>DFI.BiomedParse.BiomedParse.Mean</t>
   </si>
   <si>
-    <t>ImmuneSubtype.BiomedParse+None.BiomedParse+UNI.Mean+Mean</t>
+    <t>DFI.BiomedParse.LVMMed.Mean</t>
   </si>
   <si>
-    <t>ImmuneSubtype.BiomedParse+None.Pyradiomics+UNI.None+Mean</t>
+    <t>DFI.BiomedParse.Pyradiomics.None</t>
   </si>
   <si>
-    <t>ImmuneSubtype.BiomedParse.BiomedParse.Mean</t>
+    <t>DFI.None.UNI.Mean</t>
   </si>
   <si>
-    <t>ImmuneSubtype.BiomedParse.LVMMed.Mean</t>
+    <t>DSS.BiomedParse+None.BiomedParse+UNI.Mean+Mean</t>
   </si>
   <si>
-    <t>ImmuneSubtype.BiomedParse.Pyradiomics.None</t>
+    <t>DSS.BiomedParse+None.LVMMed+UNI.Mean+Mean</t>
   </si>
   <si>
-    <t>ImmuneSubtype.LVMMed+UNI.Mean+Mean</t>
+    <t>DSS.BiomedParse+None.Pyradiomics+UNI.None+Mean</t>
   </si>
   <si>
-    <t>ImmuneSubtype.None.UNI.Mean</t>
+    <t>DSS.BiomedParse.BiomedParse.Mean</t>
+  </si>
+  <si>
+    <t>DSS.BiomedParse.LVMMed.Mean</t>
+  </si>
+  <si>
+    <t>DSS.BiomedParse.Pyradiomics.None</t>
+  </si>
+  <si>
+    <t>DSS.None.UNI.Mean</t>
   </si>
   <si>
     <t>OS.BiomedParse+None.BiomedParse+UNI.Mean+Mean</t>
@@ -94,19 +103,25 @@
     <t>OS.None.UNI.Mean</t>
   </si>
   <si>
-    <t>PrimaryDisease.BiomedParse+None.BiomedParse+UNI.Mean+Mean</t>
+    <t>PFI.BiomedParse+None.BiomedParse+UNI.Mean+Mean</t>
   </si>
   <si>
-    <t>PrimaryDisease.BiomedParse.BiomedParse.Mean</t>
+    <t>PFI.BiomedParse+None.LVMMed+UNI.Mean+Mean</t>
   </si>
   <si>
-    <t>PrimaryDisease.BiomedParse.LVMMed.Mean</t>
+    <t>PFI.BiomedParse+None.Pyradiomics+UNI.None+Mean</t>
   </si>
   <si>
-    <t>PrimaryDisease.BiomedParse.Pyradiomics.None</t>
+    <t>PFI.BiomedParse.BiomedParse.Mean</t>
   </si>
   <si>
-    <t>PrimaryDisease.None.UNI.Mean</t>
+    <t>PFI.BiomedParse.LVMMed.Mean</t>
+  </si>
+  <si>
+    <t>PFI.BiomedParse.Pyradiomics.None</t>
+  </si>
+  <si>
+    <t>PFI.None.UNI.Mean</t>
   </si>
 </sst>
 </file>
@@ -470,16 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,1098 +513,1086 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0.52868845866437375</v>
-      </c>
-      <c r="I2">
-        <v>0.58106821608902803</v>
-      </c>
-      <c r="J2">
-        <v>0.8097074313617536</v>
-      </c>
-      <c r="K2">
-        <v>0.51977192171366926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0.76944140197152244</v>
+      </c>
+      <c r="E2">
+        <v>0.79746456768332996</v>
+      </c>
+      <c r="F2">
+        <v>0.12709561137766689</v>
+      </c>
+      <c r="G2">
+        <v>0.77639262171577783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>0.59479526314327114</v>
-      </c>
-      <c r="I3">
-        <v>0.62657192196384592</v>
-      </c>
-      <c r="J3">
-        <v>0.83056264529602664</v>
-      </c>
-      <c r="K3">
-        <v>0.59270712468992826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0.64272445820433433</v>
+      </c>
+      <c r="E3">
+        <v>0.66103329560537294</v>
+      </c>
+      <c r="F3">
+        <v>0.17621546261337959</v>
+      </c>
+      <c r="G3">
+        <v>0.64827049291039307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>0.63044873060370354</v>
-      </c>
-      <c r="I4">
-        <v>0.6412650246947732</v>
-      </c>
-      <c r="J4">
-        <v>0.85162810306013359</v>
-      </c>
-      <c r="K4">
-        <v>0.61015888378583572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0.74749721913236933</v>
+      </c>
+      <c r="E4">
+        <v>0.72365592812946378</v>
+      </c>
+      <c r="F4">
+        <v>0.1493807382390214</v>
+      </c>
+      <c r="G4">
+        <v>0.79202777666759172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>0.57007746088568922</v>
-      </c>
-      <c r="I5">
-        <v>0.5722105151130561</v>
-      </c>
-      <c r="J5">
-        <v>0.80517797608971087</v>
-      </c>
-      <c r="K5">
-        <v>0.55533974986222168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0.67736389684813758</v>
+      </c>
+      <c r="E5">
+        <v>0.70662147229120409</v>
+      </c>
+      <c r="F5">
+        <v>0.21684688549417319</v>
+      </c>
+      <c r="G5">
+        <v>0.69208833453595875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="H6">
-        <v>0.55088315207456828</v>
-      </c>
-      <c r="I6">
-        <v>0.593671051853496</v>
-      </c>
-      <c r="J6">
-        <v>0.84620648018760281</v>
-      </c>
-      <c r="K6">
-        <v>0.54324162679425836</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0.78800232964472916</v>
+      </c>
+      <c r="E6">
+        <v>0.79139998606416351</v>
+      </c>
+      <c r="F6">
+        <v>0.12227032686975819</v>
+      </c>
+      <c r="G6">
+        <v>0.83455312760160683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0.53972941334748892</v>
-      </c>
-      <c r="I7">
-        <v>0.58303798727844014</v>
-      </c>
-      <c r="J7">
-        <v>0.81164133842846731</v>
-      </c>
-      <c r="K7">
-        <v>0.52984339940691627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0.76560788608981378</v>
+      </c>
+      <c r="E7">
+        <v>0.79343527355943244</v>
+      </c>
+      <c r="F7">
+        <v>0.1338189782993148</v>
+      </c>
+      <c r="G7">
+        <v>0.79340243961061507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>0.60748940890193304</v>
-      </c>
-      <c r="I8">
-        <v>0.65293264879422264</v>
-      </c>
-      <c r="J8">
-        <v>0.8476289892061567</v>
-      </c>
-      <c r="K8">
-        <v>0.60720308723205763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0.65139318885448916</v>
+      </c>
+      <c r="E8">
+        <v>0.6705649318016238</v>
+      </c>
+      <c r="F8">
+        <v>0.177857738172602</v>
+      </c>
+      <c r="G8">
+        <v>0.6543477250629739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>0.6014866289671833</v>
-      </c>
-      <c r="I9">
-        <v>0.62702905149482091</v>
-      </c>
-      <c r="J9">
-        <v>0.84644752599396611</v>
-      </c>
-      <c r="K9">
-        <v>0.57610091743119263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0.73971078976640714</v>
+      </c>
+      <c r="E9">
+        <v>0.71492608040664352</v>
+      </c>
+      <c r="F9">
+        <v>0.14773880444561241</v>
+      </c>
+      <c r="G9">
+        <v>0.77776269349976768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="H10">
-        <v>0.58396634977457818</v>
-      </c>
-      <c r="I10">
-        <v>0.5842280165252397</v>
-      </c>
-      <c r="J10">
-        <v>0.80515717745344706</v>
-      </c>
-      <c r="K10">
-        <v>0.57369049051816356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0.67277936962750717</v>
+      </c>
+      <c r="E10">
+        <v>0.72292819605170622</v>
+      </c>
+      <c r="F10">
+        <v>0.24377998902177159</v>
+      </c>
+      <c r="G10">
+        <v>0.69756093209443404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="H11">
-        <v>0.55088315207456828</v>
-      </c>
-      <c r="I11">
-        <v>0.593671051853496</v>
-      </c>
-      <c r="J11">
-        <v>0.84620648018760281</v>
-      </c>
-      <c r="K11">
-        <v>0.54324162679425836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0.78741991846243453</v>
+      </c>
+      <c r="E11">
+        <v>0.78620767680344594</v>
+      </c>
+      <c r="F11">
+        <v>0.11969420939800431</v>
+      </c>
+      <c r="G11">
+        <v>0.82520551935305453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0.46949310427021962</v>
-      </c>
-      <c r="I12">
-        <v>0.44512580835052851</v>
-      </c>
-      <c r="J12">
-        <v>0.70648074800920102</v>
-      </c>
-      <c r="K12">
-        <v>0.45769587835134051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0.7924424972617744</v>
+      </c>
+      <c r="E12">
+        <v>0.81742104515287639</v>
+      </c>
+      <c r="F12">
+        <v>0.12087030111561151</v>
+      </c>
+      <c r="G12">
+        <v>0.79866829998883415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>0.38142540020970161</v>
-      </c>
-      <c r="I13">
-        <v>0.41433536345108979</v>
-      </c>
-      <c r="J13">
-        <v>0.66753696335894785</v>
-      </c>
-      <c r="K13">
-        <v>0.3834668466329908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0.62972136222910213</v>
+      </c>
+      <c r="E13">
+        <v>0.65724729829037332</v>
+      </c>
+      <c r="F13">
+        <v>0.1835237498967863</v>
+      </c>
+      <c r="G13">
+        <v>0.6329131983769547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="H14">
-        <v>0.42480283813643471</v>
-      </c>
-      <c r="I14">
-        <v>0.43046966819869797</v>
-      </c>
-      <c r="J14">
-        <v>0.69599245002550425</v>
-      </c>
-      <c r="K14">
-        <v>0.42613246805624311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0.74749721913236933</v>
+      </c>
+      <c r="E14">
+        <v>0.71894184256343641</v>
+      </c>
+      <c r="F14">
+        <v>0.1474715704184795</v>
+      </c>
+      <c r="G14">
+        <v>0.78688106464652641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="H15">
-        <v>0.44764736505763858</v>
-      </c>
-      <c r="I15">
-        <v>0.46444274680977271</v>
-      </c>
-      <c r="J15">
-        <v>0.71280620074856671</v>
-      </c>
-      <c r="K15">
-        <v>0.43165658181611799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0.73008595988538683</v>
+      </c>
+      <c r="E15">
+        <v>0.72391942537526222</v>
+      </c>
+      <c r="F15">
+        <v>0.17221627309057899</v>
+      </c>
+      <c r="G15">
+        <v>0.75114439054937709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="H16">
-        <v>0.32041709257723783</v>
-      </c>
-      <c r="I16">
-        <v>0.45712345974348928</v>
-      </c>
-      <c r="J16">
-        <v>0.72052809889076008</v>
-      </c>
-      <c r="K16">
-        <v>0.32642605659847029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0.77693651718112988</v>
+      </c>
+      <c r="E16">
+        <v>0.78793245970007975</v>
+      </c>
+      <c r="F16">
+        <v>0.12318301431364651</v>
+      </c>
+      <c r="G16">
+        <v>0.82775714469390105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0.38838912944610421</v>
-      </c>
-      <c r="I17">
-        <v>0.44689327772279108</v>
-      </c>
-      <c r="J17">
-        <v>0.70453567583008148</v>
-      </c>
-      <c r="K17">
-        <v>0.38716411281367968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0.71631982475355971</v>
+      </c>
+      <c r="E17">
+        <v>0.72535986732104452</v>
+      </c>
+      <c r="F17">
+        <v>0.15298159392303909</v>
+      </c>
+      <c r="G17">
+        <v>0.76013936974942042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>0.44379022387175743</v>
-      </c>
-      <c r="I18">
-        <v>0.44578220244898481</v>
-      </c>
-      <c r="J18">
-        <v>0.71704985110092878</v>
-      </c>
-      <c r="K18">
-        <v>0.44505778760065318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0.61857585139318882</v>
+      </c>
+      <c r="E18">
+        <v>0.6140622672465782</v>
+      </c>
+      <c r="F18">
+        <v>0.18331504642484939</v>
+      </c>
+      <c r="G18">
+        <v>0.62352443273876379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>0.42175328188772337</v>
-      </c>
-      <c r="I19">
-        <v>0.42856274160935448</v>
-      </c>
-      <c r="J19">
-        <v>0.71555670051229092</v>
-      </c>
-      <c r="K19">
-        <v>0.42345261785493732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>0.67964404894327035</v>
+      </c>
+      <c r="E19">
+        <v>0.63843135512877291</v>
+      </c>
+      <c r="F19">
+        <v>0.15627199107947151</v>
+      </c>
+      <c r="G19">
+        <v>0.74336817899851659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="H20">
-        <v>0.38279562580703658</v>
-      </c>
-      <c r="I20">
-        <v>0.42964200513232298</v>
-      </c>
-      <c r="J20">
-        <v>0.68730412903004701</v>
-      </c>
-      <c r="K20">
-        <v>0.37928543566756168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0.71289398280802296</v>
+      </c>
+      <c r="E20">
+        <v>0.70752931222597981</v>
+      </c>
+      <c r="F20">
+        <v>0.19850792445418439</v>
+      </c>
+      <c r="G20">
+        <v>0.72539151917522249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="H21">
-        <v>0.44852751930672718</v>
-      </c>
-      <c r="I21">
-        <v>0.44630750217994408</v>
-      </c>
-      <c r="J21">
-        <v>0.70361927893678644</v>
-      </c>
-      <c r="K21">
-        <v>0.44787564616161563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>0.77868375072801399</v>
+      </c>
+      <c r="E21">
+        <v>0.78656706968533696</v>
+      </c>
+      <c r="F21">
+        <v>0.12321712649678231</v>
+      </c>
+      <c r="G21">
+        <v>0.82913978269583621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>0.46084181864179502</v>
-      </c>
-      <c r="I22">
-        <v>0.40143879021267692</v>
-      </c>
-      <c r="J22">
-        <v>0.68033797719914935</v>
-      </c>
-      <c r="K22">
-        <v>0.43607497689163432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>0.78641840087623216</v>
+      </c>
+      <c r="E22">
+        <v>0.78887608413090615</v>
+      </c>
+      <c r="F22">
+        <v>0.14946747045179351</v>
+      </c>
+      <c r="G22">
+        <v>0.84310215145107703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="H23">
-        <v>0.30760303379938547</v>
-      </c>
-      <c r="I23">
-        <v>0.37053975811831202</v>
-      </c>
-      <c r="J23">
-        <v>0.66301446513802698</v>
-      </c>
-      <c r="K23">
-        <v>0.28993687629015391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0.66377708978328176</v>
+      </c>
+      <c r="E23">
+        <v>0.59031622246914039</v>
+      </c>
+      <c r="F23">
+        <v>0.17617504721439961</v>
+      </c>
+      <c r="G23">
+        <v>0.7073992943105657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="H24">
-        <v>0.36158893524550728</v>
-      </c>
-      <c r="I24">
-        <v>0.4219974385088831</v>
-      </c>
-      <c r="J24">
-        <v>0.68524889337701178</v>
-      </c>
-      <c r="K24">
-        <v>0.3605806377212708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0.72024471635150167</v>
+      </c>
+      <c r="E24">
+        <v>0.68698747378135361</v>
+      </c>
+      <c r="F24">
+        <v>0.1637658658421153</v>
+      </c>
+      <c r="G24">
+        <v>0.76830578947397432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="H25">
-        <v>0.39604765957571259</v>
-      </c>
-      <c r="I25">
-        <v>0.41257902946588382</v>
-      </c>
-      <c r="J25">
-        <v>0.69412355177264107</v>
-      </c>
-      <c r="K25">
-        <v>0.37968137254901962</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0.74383954154727794</v>
+      </c>
+      <c r="E25">
+        <v>0.77481154039568967</v>
+      </c>
+      <c r="F25">
+        <v>0.16373527027564941</v>
+      </c>
+      <c r="G25">
+        <v>0.76503582646480095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="H26">
-        <v>0.40708861425882781</v>
-      </c>
-      <c r="I26">
-        <v>0.40060507047340871</v>
-      </c>
-      <c r="J26">
-        <v>0.67786738286438053</v>
-      </c>
-      <c r="K26">
-        <v>0.39326563788294322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0.75480489225393133</v>
+      </c>
+      <c r="E26">
+        <v>0.75826008996039251</v>
+      </c>
+      <c r="F26">
+        <v>0.12798841199159411</v>
+      </c>
+      <c r="G26">
+        <v>0.82832116184135396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>0.53972941334748892</v>
-      </c>
-      <c r="I27">
-        <v>0.58303798727844014</v>
-      </c>
-      <c r="J27">
-        <v>0.81164133842846731</v>
-      </c>
-      <c r="K27">
-        <v>0.52984339940691627</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>0.74644030668127048</v>
+      </c>
+      <c r="E27">
+        <v>0.76376359662094595</v>
+      </c>
+      <c r="F27">
+        <v>0.15637362994174139</v>
+      </c>
+      <c r="G27">
+        <v>0.77122172002922706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>0.60748940890193304</v>
-      </c>
-      <c r="I28">
-        <v>0.65293264879422264</v>
-      </c>
-      <c r="J28">
-        <v>0.8476289892061567</v>
-      </c>
-      <c r="K28">
-        <v>0.60720308723205763</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>0.54798761609907121</v>
+      </c>
+      <c r="E28">
+        <v>0.58324517756527006</v>
+      </c>
+      <c r="F28">
+        <v>0.20610526233843929</v>
+      </c>
+      <c r="G28">
+        <v>0.56947688366801397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="H29">
-        <v>0.6014866289671833</v>
-      </c>
-      <c r="I29">
-        <v>0.62702905149482091</v>
-      </c>
-      <c r="J29">
-        <v>0.84644752599396611</v>
-      </c>
-      <c r="K29">
-        <v>0.57610091743119263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="E29">
+        <v>0.63854370220647139</v>
+      </c>
+      <c r="F29">
+        <v>0.15508372758857639</v>
+      </c>
+      <c r="G29">
+        <v>0.72102091721528094</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>0.58396634977457818</v>
-      </c>
-      <c r="I30">
-        <v>0.5842280165252397</v>
-      </c>
-      <c r="J30">
-        <v>0.80515717745344706</v>
-      </c>
-      <c r="K30">
-        <v>0.57369049051816356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>0.75816618911174782</v>
+      </c>
+      <c r="E30">
+        <v>0.75164689766391957</v>
+      </c>
+      <c r="F30">
+        <v>0.16700799715501671</v>
+      </c>
+      <c r="G30">
+        <v>0.77872716320133906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="H31">
-        <v>0.55088315207456828</v>
-      </c>
-      <c r="I31">
-        <v>0.593671051853496</v>
-      </c>
-      <c r="J31">
-        <v>0.84620648018760281</v>
-      </c>
-      <c r="K31">
-        <v>0.54324162679425836</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>0.71170646476412347</v>
+      </c>
+      <c r="E31">
+        <v>0.66602529691540158</v>
+      </c>
+      <c r="F31">
+        <v>0.1403950152717392</v>
+      </c>
+      <c r="G31">
+        <v>0.73223684325952199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>0.53972941334748892</v>
-      </c>
-      <c r="I32">
-        <v>0.58303798727844014</v>
-      </c>
-      <c r="J32">
-        <v>0.81164133842846731</v>
-      </c>
-      <c r="K32">
-        <v>0.52984339940691627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>0.77710843373493976</v>
+      </c>
+      <c r="E32">
+        <v>0.807731653110345</v>
+      </c>
+      <c r="F32">
+        <v>0.1227674756315757</v>
+      </c>
+      <c r="G32">
+        <v>0.77660758891903359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="H33">
-        <v>0.60748940890193304</v>
-      </c>
-      <c r="I33">
-        <v>0.65293264879422264</v>
-      </c>
-      <c r="J33">
-        <v>0.8476289892061567</v>
-      </c>
-      <c r="K33">
-        <v>0.60720308723205763</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>0.64272445820433433</v>
+      </c>
+      <c r="E33">
+        <v>0.66103329560537294</v>
+      </c>
+      <c r="F33">
+        <v>0.17621546261337959</v>
+      </c>
+      <c r="G33">
+        <v>0.64827049291039307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="H34">
-        <v>0.6014866289671833</v>
-      </c>
-      <c r="I34">
-        <v>0.62702905149482091</v>
-      </c>
-      <c r="J34">
-        <v>0.84644752599396611</v>
-      </c>
-      <c r="K34">
-        <v>0.57610091743119263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>0.73637374860956617</v>
+      </c>
+      <c r="E34">
+        <v>0.71504840406478642</v>
+      </c>
+      <c r="F34">
+        <v>0.1496786866357388</v>
+      </c>
+      <c r="G34">
+        <v>0.77862632429297629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="H35">
-        <v>0.58396634977457818</v>
-      </c>
-      <c r="I35">
-        <v>0.5842280165252397</v>
-      </c>
-      <c r="J35">
-        <v>0.80515717745344706</v>
-      </c>
-      <c r="K35">
-        <v>0.57369049051816356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>0.68022922636103156</v>
+      </c>
+      <c r="E35">
+        <v>0.71640738648480995</v>
+      </c>
+      <c r="F35">
+        <v>0.21200904868236761</v>
+      </c>
+      <c r="G35">
+        <v>0.69416125873273349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="H36">
-        <v>0.55088315207456828</v>
-      </c>
-      <c r="I36">
-        <v>0.593671051853496</v>
-      </c>
-      <c r="J36">
-        <v>0.84620648018760281</v>
-      </c>
-      <c r="K36">
-        <v>0.54324162679425836</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>0.78276062900407684</v>
+      </c>
+      <c r="E36">
+        <v>0.79142855800872058</v>
+      </c>
+      <c r="F36">
+        <v>0.1237477340848417</v>
+      </c>
+      <c r="G36">
+        <v>0.83084448455663595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.67333917177530334</v>
+        <v>0.67512274959083474</v>
       </c>
       <c r="E37">
-        <v>0.59557586797958273</v>
+        <v>0.72688139800681639</v>
       </c>
       <c r="F37">
-        <v>0.16912757997645081</v>
+        <v>0.16022180248553641</v>
       </c>
       <c r="G37">
-        <v>0.69673264324714179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.69260442606406247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.69427912061217056</v>
+        <v>0.69664407340056211</v>
       </c>
       <c r="E38">
-        <v>0.63978095559865478</v>
+        <v>0.71556638902727465</v>
       </c>
       <c r="F38">
-        <v>0.20427105303495219</v>
+        <v>0.14888438905374671</v>
       </c>
       <c r="G38">
-        <v>0.72564941257148186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.73713642850937044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>0.64937537180249849</v>
+        <v>0.69635297948550956</v>
       </c>
       <c r="E39">
-        <v>0.65056500494649983</v>
+        <v>0.69148199003081989</v>
       </c>
       <c r="F39">
-        <v>0.18743522308412611</v>
+        <v>0.14768079006936549</v>
       </c>
       <c r="G39">
-        <v>0.68818424816871826</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.71944827603253658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>0.60891566265060237</v>
+        <v>0.6737216390111751</v>
       </c>
       <c r="E40">
-        <v>0.66610692346135014</v>
+        <v>0.70995356129441622</v>
       </c>
       <c r="F40">
-        <v>0.18978162503838661</v>
+        <v>0.17779929687180601</v>
       </c>
       <c r="G40">
-        <v>0.62150358325099397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.68343193211285735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>0.6695288930146206</v>
+        <v>0.72119026149684395</v>
       </c>
       <c r="E41">
-        <v>0.69687977074946339</v>
+        <v>0.70956522927319476</v>
       </c>
       <c r="F41">
-        <v>0.1989652740838547</v>
+        <v>0.143304437915236</v>
       </c>
       <c r="G41">
-        <v>0.69555141958757927</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.73920150718712307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.68159639684724138</v>
+        <v>0.71947626841243861</v>
       </c>
       <c r="E42">
-        <v>0.68519379698872174</v>
+        <v>0.74259896596736441</v>
       </c>
       <c r="F42">
-        <v>0.178038975891566</v>
+        <v>0.1588643874172353</v>
       </c>
       <c r="G42">
-        <v>0.69548477784015028</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.73016434860480561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0.66962225191303293</v>
+        <v>0.69614812365680279</v>
       </c>
       <c r="E43">
-        <v>0.64568988119318316</v>
+        <v>0.69894264820133678</v>
       </c>
       <c r="F43">
-        <v>0.21470220636943571</v>
+        <v>0.16289532667620241</v>
       </c>
       <c r="G43">
-        <v>0.69441956431195662</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.72758597210136267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>0.64176085663295657</v>
+        <v>0.64392705958971019</v>
       </c>
       <c r="E44">
-        <v>0.68159003433110077</v>
+        <v>0.65450723066334304</v>
       </c>
       <c r="F44">
-        <v>0.21630804464334069</v>
+        <v>0.14970103433925</v>
       </c>
       <c r="G44">
-        <v>0.6763796792196175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.66977257869701035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45">
-        <v>0.64493975903614453</v>
+        <v>0.70250592617676944</v>
       </c>
       <c r="E45">
-        <v>0.69799564966732019</v>
+        <v>0.70899077268161237</v>
       </c>
       <c r="F45">
-        <v>0.18737836240595721</v>
+        <v>0.1927186067563591</v>
       </c>
       <c r="G45">
-        <v>0.65222521164591463</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.73101641536852024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>0.66790438616848458</v>
+        <v>0.7309287646528404</v>
       </c>
       <c r="E46">
-        <v>0.6661571115399969</v>
+        <v>0.71925752301700729</v>
       </c>
       <c r="F46">
-        <v>0.21814201548907969</v>
+        <v>0.138961171774516</v>
       </c>
       <c r="G46">
-        <v>0.68868311439210339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.76253710325458346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.68247216314274994</v>
+        <v>0.71898527004909984</v>
       </c>
       <c r="E47">
-        <v>0.61271314537780641</v>
+        <v>0.7438640874352036</v>
       </c>
       <c r="F47">
-        <v>0.17201466090389511</v>
+        <v>0.15814019043873909</v>
       </c>
       <c r="G47">
-        <v>0.70614798659551048</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.74575999360342782</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0.67921778209644113</v>
+        <v>0.69499090758803106</v>
       </c>
       <c r="E48">
-        <v>0.64913463094639967</v>
+        <v>0.72072069648865233</v>
       </c>
       <c r="F48">
-        <v>0.20244112893690799</v>
+        <v>0.14507803006922859</v>
       </c>
       <c r="G48">
-        <v>0.71048860710912187</v>
+        <v>0.73239086093548145</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1597,22 +1600,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49">
-        <v>0.66555621653777508</v>
+        <v>0.71149462715727774</v>
       </c>
       <c r="E49">
-        <v>0.67200973715390111</v>
+        <v>0.70494154184687208</v>
       </c>
       <c r="F49">
-        <v>0.18223926917641381</v>
+        <v>0.14957635066508509</v>
       </c>
       <c r="G49">
-        <v>0.69599771643044184</v>
+        <v>0.7345296698876117</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1620,22 +1623,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50">
-        <v>0.67698795180722893</v>
+        <v>0.67710802573653917</v>
       </c>
       <c r="E50">
-        <v>0.7120226812842908</v>
+        <v>0.70840565364083963</v>
       </c>
       <c r="F50">
-        <v>0.17808961331525031</v>
+        <v>0.19467238198752829</v>
       </c>
       <c r="G50">
-        <v>0.6918330596865605</v>
+        <v>0.66562070477152702</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1643,22 +1646,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51">
-        <v>0.6902993734045022</v>
+        <v>0.70171325518485117</v>
       </c>
       <c r="E51">
-        <v>0.74080594585050841</v>
+        <v>0.69216277234880386</v>
       </c>
       <c r="F51">
-        <v>0.19598824916248031</v>
+        <v>0.15197696533830429</v>
       </c>
       <c r="G51">
-        <v>0.71709380086292085</v>
+        <v>0.70739772112879318</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1666,22 +1669,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.58738896534467655</v>
+        <v>0.61685761047463172</v>
       </c>
       <c r="E52">
-        <v>0.61541493999789876</v>
+        <v>0.67562500811857962</v>
       </c>
       <c r="F52">
-        <v>0.18925135172386601</v>
+        <v>0.16388814173715721</v>
       </c>
       <c r="G52">
-        <v>0.58064896826342427</v>
+        <v>0.63953115548352468</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1689,22 +1692,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0.60901251062796069</v>
+        <v>0.60092577285501736</v>
       </c>
       <c r="E53">
-        <v>0.60181581344751378</v>
+        <v>0.61715940378977852</v>
       </c>
       <c r="F53">
-        <v>0.2179076320256185</v>
+        <v>0.16012988073177639</v>
       </c>
       <c r="G53">
-        <v>0.62568391504805621</v>
+        <v>0.61322749605703786</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1712,22 +1715,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54">
-        <v>0.58762641284949435</v>
+        <v>0.59280364702051447</v>
       </c>
       <c r="E54">
-        <v>0.5701294580997327</v>
+        <v>0.62223999022556753</v>
       </c>
       <c r="F54">
-        <v>0.2077496992850254</v>
+        <v>0.15876001328437009</v>
       </c>
       <c r="G54">
-        <v>0.60322880004704627</v>
+        <v>0.58749323324872915</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1735,22 +1738,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55">
-        <v>0.53638554216867473</v>
+        <v>0.59515746698272942</v>
       </c>
       <c r="E55">
-        <v>0.54088346890329397</v>
+        <v>0.62806608819061782</v>
       </c>
       <c r="F55">
-        <v>0.20378597982138771</v>
+        <v>0.17157744744449879</v>
       </c>
       <c r="G55">
-        <v>0.54034117416700889</v>
+        <v>0.60361348359208256</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1758,22 +1761,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56">
-        <v>0.6342538872128104</v>
+        <v>0.64165915238954008</v>
       </c>
       <c r="E56">
-        <v>0.61569986186252224</v>
+        <v>0.62167036687696808</v>
       </c>
       <c r="F56">
-        <v>0.19841453137181339</v>
+        <v>0.15566274508899339</v>
       </c>
       <c r="G56">
-        <v>0.65667628594829075</v>
+        <v>0.64204506479284051</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1781,22 +1784,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.64856749655948953</v>
+        <v>0.65646481178396077</v>
       </c>
       <c r="E57">
-        <v>0.64753404288411742</v>
+        <v>0.67019999005028152</v>
       </c>
       <c r="F57">
-        <v>0.19230496411330869</v>
+        <v>0.18642931826945741</v>
       </c>
       <c r="G57">
-        <v>0.64997278838091055</v>
+        <v>0.66902185433140438</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1804,22 +1807,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0.62662455969877318</v>
+        <v>0.64688378244337907</v>
       </c>
       <c r="E58">
-        <v>0.65035011053933123</v>
+        <v>0.6321366434006902</v>
       </c>
       <c r="F58">
-        <v>0.2161761065152733</v>
+        <v>0.18034991551985599</v>
       </c>
       <c r="G58">
-        <v>0.6433928342140075</v>
+        <v>0.65975195003034681</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1827,22 +1830,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59">
-        <v>0.58001189767995243</v>
+        <v>0.60745685444480624</v>
       </c>
       <c r="E59">
-        <v>0.64687934692044946</v>
+        <v>0.60374967136334501</v>
       </c>
       <c r="F59">
-        <v>0.2169628413923016</v>
+        <v>0.15908595101474471</v>
       </c>
       <c r="G59">
-        <v>0.60179065353206951</v>
+        <v>0.61711402321920106</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1850,22 +1853,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60">
-        <v>0.61048192771084342</v>
+        <v>0.64442939383677611</v>
       </c>
       <c r="E60">
-        <v>0.58889285489425813</v>
+        <v>0.67325072548138643</v>
       </c>
       <c r="F60">
-        <v>0.20297839454920541</v>
+        <v>0.16501654934765339</v>
       </c>
       <c r="G60">
-        <v>0.6208208774869618</v>
+        <v>0.67697369401580021</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1873,22 +1876,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61">
-        <v>0.64632165235553496</v>
+        <v>0.68728584310189356</v>
       </c>
       <c r="E61">
-        <v>0.61276327468422653</v>
+        <v>0.68663017126562997</v>
       </c>
       <c r="F61">
-        <v>0.22066037983191461</v>
+        <v>0.14158948966829271</v>
       </c>
       <c r="G61">
-        <v>0.65955219720525204</v>
+        <v>0.71194857035760872</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -1896,22 +1899,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.55886400600525454</v>
+        <v>0.65564648117839608</v>
       </c>
       <c r="E62">
-        <v>0.50954356633887954</v>
+        <v>0.66667781803150272</v>
       </c>
       <c r="F62">
-        <v>0.1797906756853497</v>
+        <v>0.16361309837553811</v>
       </c>
       <c r="G62">
-        <v>0.55949251317740323</v>
+        <v>0.66928930677397269</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -1919,22 +1922,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.58034738248512086</v>
+        <v>0.62092907918664242</v>
       </c>
       <c r="E63">
-        <v>0.60483299660768541</v>
+        <v>0.64463319735930125</v>
       </c>
       <c r="F63">
-        <v>0.22051807405753199</v>
+        <v>0.16147398540510219</v>
       </c>
       <c r="G63">
-        <v>0.58042575926587114</v>
+        <v>0.63746800685722838</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -1942,758 +1945,1772 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64">
-        <v>0.60725758477096969</v>
+        <v>0.60989905568218816</v>
       </c>
       <c r="E64">
-        <v>0.56420830682511014</v>
+        <v>0.60060085284321885</v>
       </c>
       <c r="F64">
-        <v>0.20124187376099659</v>
+        <v>0.1601949485708811</v>
       </c>
       <c r="G64">
-        <v>0.6117844841003206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.61133257987042966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65">
-        <v>0.58578313253012049</v>
+        <v>0.63833389773112093</v>
       </c>
       <c r="E65">
-        <v>0.56195748776350019</v>
+        <v>0.63922056789130621</v>
       </c>
       <c r="F65">
-        <v>0.19617188496443219</v>
+        <v>0.17649510685679279</v>
       </c>
       <c r="G65">
-        <v>0.57279618587085468</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.63013398642829277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66">
-        <v>0.61545602227895102</v>
+        <v>0.58485121731289447</v>
       </c>
       <c r="E66">
-        <v>0.65056217530656635</v>
+        <v>0.58195872943390059</v>
       </c>
       <c r="F66">
-        <v>0.20374402659545321</v>
+        <v>0.1676891402836245</v>
       </c>
       <c r="G66">
-        <v>0.62213617668541576</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.56345103093917415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.67333917177530334</v>
+        <v>0.67839607201309327</v>
       </c>
       <c r="E67">
-        <v>0.6014271215904895</v>
+        <v>0.7304523272425969</v>
       </c>
       <c r="F67">
-        <v>0.17236893642773879</v>
+        <v>0.1608104709668538</v>
       </c>
       <c r="G67">
-        <v>0.69321902458574336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.69645833736758367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0.69938054172233699</v>
+        <v>0.70375268639444533</v>
       </c>
       <c r="E68">
-        <v>0.64329758923690961</v>
+        <v>0.72564706274226676</v>
       </c>
       <c r="F68">
-        <v>0.19707670731770191</v>
+        <v>0.14422133378698779</v>
       </c>
       <c r="G68">
-        <v>0.73256636921345208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.74299731602598651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>0.65056513979773944</v>
+        <v>0.69374796483230217</v>
       </c>
       <c r="E69">
-        <v>0.6519873280111701</v>
+        <v>0.69077389078886997</v>
       </c>
       <c r="F69">
-        <v>0.18584347673270901</v>
+        <v>0.14789606840618391</v>
       </c>
       <c r="G69">
-        <v>0.69170954420172814</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.71917132437158038</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70">
-        <v>0.64481927710843379</v>
+        <v>0.7028445648493058</v>
       </c>
       <c r="E70">
-        <v>0.69317513514847384</v>
+        <v>0.71314366529354134</v>
       </c>
       <c r="F70">
-        <v>0.18257404653025869</v>
+        <v>0.185766900030681</v>
       </c>
       <c r="G70">
-        <v>0.66883012166147515</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.70839164528359388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C71">
         <v>4</v>
       </c>
       <c r="D71">
-        <v>0.67080529125087029</v>
+        <v>0.71722272317403069</v>
       </c>
       <c r="E71">
-        <v>0.70442848507608147</v>
+        <v>0.71374864293371076</v>
       </c>
       <c r="F71">
-        <v>0.19970596025877169</v>
+        <v>0.14078792458664191</v>
       </c>
       <c r="G71">
-        <v>0.69557825497092962</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.74271980400284621</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0.9521326608446582</v>
-      </c>
-      <c r="I72">
-        <v>0.98078155764981889</v>
-      </c>
-      <c r="J72">
-        <v>0.99913098456934413</v>
-      </c>
-      <c r="K72">
-        <v>0.94917777829409877</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>0.70262223748998054</v>
+      </c>
+      <c r="E72">
+        <v>0.71035154731984063</v>
+      </c>
+      <c r="F72">
+        <v>0.20129612729698629</v>
+      </c>
+      <c r="G72">
+        <v>0.72223563485505082</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="H73">
-        <v>0.9084540197975961</v>
-      </c>
-      <c r="I73">
-        <v>0.95512943448206289</v>
-      </c>
-      <c r="J73">
-        <v>0.99748172039914118</v>
-      </c>
-      <c r="K73">
-        <v>0.90980202780028741</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>0.68169860954528372</v>
+      </c>
+      <c r="E73">
+        <v>0.67242086048987371</v>
+      </c>
+      <c r="F73">
+        <v>0.19306804963655869</v>
+      </c>
+      <c r="G73">
+        <v>0.69553300304057242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
-      <c r="H74">
-        <v>0.9761871151622703</v>
-      </c>
-      <c r="I74">
-        <v>0.99566867399412051</v>
-      </c>
-      <c r="J74">
-        <v>0.9994253291948072</v>
-      </c>
-      <c r="K74">
-        <v>0.97909407821039862</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>0.68528221005001189</v>
+      </c>
+      <c r="E74">
+        <v>0.69852720197722795</v>
+      </c>
+      <c r="F74">
+        <v>0.1817160291076696</v>
+      </c>
+      <c r="G74">
+        <v>0.70645009132139491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
-      <c r="H75">
-        <v>0.94711779448621558</v>
-      </c>
-      <c r="I75">
-        <v>0.98604997341839451</v>
-      </c>
-      <c r="J75">
-        <v>0.99937147246789804</v>
-      </c>
-      <c r="K75">
-        <v>0.94789691045010183</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>0.64798620519768446</v>
+      </c>
+      <c r="E75">
+        <v>0.62721528966292128</v>
+      </c>
+      <c r="F75">
+        <v>0.19710320480517279</v>
+      </c>
+      <c r="G75">
+        <v>0.66417425976036804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
-      <c r="H76">
-        <v>0.90289331066545842</v>
-      </c>
-      <c r="I76">
-        <v>0.97165668887088619</v>
-      </c>
-      <c r="J76">
-        <v>0.9983364599644291</v>
-      </c>
-      <c r="K76">
-        <v>0.90204566482000403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>0.67219560142523649</v>
+      </c>
+      <c r="E76">
+        <v>0.70030231966146028</v>
+      </c>
+      <c r="F76">
+        <v>0.1848741928291569</v>
+      </c>
+      <c r="G76">
+        <v>0.68378294561222175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>0.63168226262374672</v>
-      </c>
-      <c r="I77">
-        <v>0.6955359626208425</v>
-      </c>
-      <c r="J77">
-        <v>0.95370065546377025</v>
-      </c>
-      <c r="K77">
-        <v>0.63042562995985751</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>0.69620977899919845</v>
+      </c>
+      <c r="E77">
+        <v>0.67832552095845822</v>
+      </c>
+      <c r="F77">
+        <v>0.20906440352264791</v>
+      </c>
+      <c r="G77">
+        <v>0.71818503961858726</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="H78">
-        <v>0.68448567069848543</v>
-      </c>
-      <c r="I78">
-        <v>0.73013989326564643</v>
-      </c>
-      <c r="J78">
-        <v>0.96286998552359326</v>
-      </c>
-      <c r="K78">
-        <v>0.67147420073618558</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>0.66015282475259929</v>
+      </c>
+      <c r="E78">
+        <v>0.64218094253211322</v>
+      </c>
+      <c r="F78">
+        <v>0.22285515763004149</v>
+      </c>
+      <c r="G78">
+        <v>0.67496658304343227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
-      <c r="H79">
-        <v>0.64079937594157932</v>
-      </c>
-      <c r="I79">
-        <v>0.70879546782316294</v>
-      </c>
-      <c r="J79">
-        <v>0.9596233686880401</v>
-      </c>
-      <c r="K79">
-        <v>0.62882170233234069</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>0.67492260061919507</v>
+      </c>
+      <c r="E79">
+        <v>0.68287738104011209</v>
+      </c>
+      <c r="F79">
+        <v>0.19603101566671899</v>
+      </c>
+      <c r="G79">
+        <v>0.68700371798805837</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
-      <c r="H80">
-        <v>0.69670765076943575</v>
-      </c>
-      <c r="I80">
-        <v>0.66129064812594029</v>
-      </c>
-      <c r="J80">
-        <v>0.94986799081381013</v>
-      </c>
-      <c r="K80">
-        <v>0.6746929452213688</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>0.67668432072915385</v>
+      </c>
+      <c r="E80">
+        <v>0.63729113562713213</v>
+      </c>
+      <c r="F80">
+        <v>0.1864117999034062</v>
+      </c>
+      <c r="G80">
+        <v>0.69637430743661932</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
-      <c r="H81">
-        <v>0.63329274154707293</v>
-      </c>
-      <c r="I81">
-        <v>0.7237406797765753</v>
-      </c>
-      <c r="J81">
-        <v>0.9638885101917124</v>
-      </c>
-      <c r="K81">
-        <v>0.61922653094628632</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>0.66298071016095339</v>
+      </c>
+      <c r="E81">
+        <v>0.66794377664863624</v>
+      </c>
+      <c r="F81">
+        <v>0.1929910337273413</v>
+      </c>
+      <c r="G81">
+        <v>0.66437772810280726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>0.61979410537762936</v>
-      </c>
-      <c r="I82">
-        <v>0.72705860561634206</v>
-      </c>
-      <c r="J82">
-        <v>0.95666755150866778</v>
-      </c>
-      <c r="K82">
-        <v>0.61502096037597875</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>0.69735486087255238</v>
+      </c>
+      <c r="E82">
+        <v>0.69908714498522739</v>
+      </c>
+      <c r="F82">
+        <v>0.20554581286664719</v>
+      </c>
+      <c r="G82">
+        <v>0.71998532171169327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="H83">
-        <v>0.68572846886021133</v>
-      </c>
-      <c r="I83">
-        <v>0.64851303735702803</v>
-      </c>
-      <c r="J83">
-        <v>0.94628172283685497</v>
-      </c>
-      <c r="K83">
-        <v>0.65771103496440086</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>0.69009144431917824</v>
+      </c>
+      <c r="E83">
+        <v>0.67263540395316102</v>
+      </c>
+      <c r="F83">
+        <v>0.191463956568628</v>
+      </c>
+      <c r="G83">
+        <v>0.70449447642594243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
-      <c r="H84">
-        <v>0.64787395507402046</v>
-      </c>
-      <c r="I84">
-        <v>0.68634403342561412</v>
-      </c>
-      <c r="J84">
-        <v>0.94629215023720037</v>
-      </c>
-      <c r="K84">
-        <v>0.63915416517959123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>0.69683257918552033</v>
+      </c>
+      <c r="E84">
+        <v>0.72398112098111445</v>
+      </c>
+      <c r="F84">
+        <v>0.17904316255099181</v>
+      </c>
+      <c r="G84">
+        <v>0.72188299235235642</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
-      <c r="H85">
-        <v>0.63361479094561801</v>
-      </c>
-      <c r="I85">
-        <v>0.66763013789381787</v>
-      </c>
-      <c r="J85">
-        <v>0.93759936364495933</v>
-      </c>
-      <c r="K85">
-        <v>0.61177307640023249</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>0.63616208892720782</v>
+      </c>
+      <c r="E85">
+        <v>0.62898901184011569</v>
+      </c>
+      <c r="F85">
+        <v>0.20707393972689789</v>
+      </c>
+      <c r="G85">
+        <v>0.64391701905497356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
-      <c r="H86">
-        <v>0.59576141322627107</v>
-      </c>
-      <c r="I86">
-        <v>0.67088124751311251</v>
-      </c>
-      <c r="J86">
-        <v>0.94976862550907126</v>
-      </c>
-      <c r="K86">
-        <v>0.5900893951891546</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>0.67575869271409261</v>
+      </c>
+      <c r="E86">
+        <v>0.70531437652612095</v>
+      </c>
+      <c r="F86">
+        <v>0.18765842391418941</v>
+      </c>
+      <c r="G86">
+        <v>0.68372043340654476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
-      <c r="H87">
-        <v>0.48835112044494189</v>
-      </c>
-      <c r="I87">
-        <v>0.57481616323472218</v>
-      </c>
-      <c r="J87">
-        <v>0.9172336814695079</v>
-      </c>
-      <c r="K87">
-        <v>0.49415669161296077</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>0.60162601626016265</v>
+      </c>
+      <c r="E87">
+        <v>0.63032575180251749</v>
+      </c>
+      <c r="F87">
+        <v>0.2228563963573752</v>
+      </c>
+      <c r="G87">
+        <v>0.60024219635733422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="H88">
-        <v>0.53297779551457225</v>
-      </c>
-      <c r="I88">
-        <v>0.57048806662220652</v>
-      </c>
-      <c r="J88">
-        <v>0.90714516933956602</v>
-      </c>
-      <c r="K88">
-        <v>0.53582172849414234</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>0.65301265188525615</v>
+      </c>
+      <c r="E88">
+        <v>0.65004476616674978</v>
+      </c>
+      <c r="F88">
+        <v>0.18748756038439141</v>
+      </c>
+      <c r="G88">
+        <v>0.66834552978146478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
-      <c r="H89">
-        <v>0.58295759003506631</v>
-      </c>
-      <c r="I89">
-        <v>0.60891949116252919</v>
-      </c>
-      <c r="J89">
-        <v>0.91076990233282173</v>
-      </c>
-      <c r="K89">
-        <v>0.5747520995222859</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>0.61705167897118363</v>
+      </c>
+      <c r="E89">
+        <v>0.63790974408214873</v>
+      </c>
+      <c r="F89">
+        <v>0.19527934177588011</v>
+      </c>
+      <c r="G89">
+        <v>0.63374983952063779</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
-      <c r="H90">
-        <v>0.57051286224218556</v>
-      </c>
-      <c r="I90">
-        <v>0.58677816850754494</v>
-      </c>
-      <c r="J90">
-        <v>0.88854710703889972</v>
-      </c>
-      <c r="K90">
-        <v>0.54862364782188033</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>0.62680133021308038</v>
+      </c>
+      <c r="E90">
+        <v>0.6420499065439792</v>
+      </c>
+      <c r="F90">
+        <v>0.19795847295424049</v>
+      </c>
+      <c r="G90">
+        <v>0.64062638021341034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
-      <c r="H91">
-        <v>0.47370801682668312</v>
-      </c>
-      <c r="I91">
-        <v>0.53728091951722323</v>
-      </c>
-      <c r="J91">
-        <v>0.89062457706611919</v>
-      </c>
-      <c r="K91">
-        <v>0.46549397395633141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>0.63705614940410371</v>
+      </c>
+      <c r="E91">
+        <v>0.60904129665411322</v>
+      </c>
+      <c r="F91">
+        <v>0.2013517351408862</v>
+      </c>
+      <c r="G91">
+        <v>0.64280395720473116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>0.9161143888015415</v>
-      </c>
-      <c r="I92">
-        <v>0.97827435291836584</v>
-      </c>
-      <c r="J92">
-        <v>0.99837737475264476</v>
-      </c>
-      <c r="K92">
-        <v>0.91822031458626241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>0.59292339402267258</v>
+      </c>
+      <c r="E92">
+        <v>0.56525340862229523</v>
+      </c>
+      <c r="F92">
+        <v>0.2232054286597219</v>
+      </c>
+      <c r="G92">
+        <v>0.5948768463122136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="H93">
-        <v>0.9084540197975961</v>
-      </c>
-      <c r="I93">
-        <v>0.95390415975678822</v>
-      </c>
-      <c r="J93">
-        <v>0.99747883341729793</v>
-      </c>
-      <c r="K93">
-        <v>0.90641642092595875</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>0.58161092321182517</v>
+      </c>
+      <c r="E93">
+        <v>0.57375602174227713</v>
+      </c>
+      <c r="F93">
+        <v>0.25088334825393832</v>
+      </c>
+      <c r="G93">
+        <v>0.57230256862331774</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
-      <c r="H94">
-        <v>0.9672202535638299</v>
-      </c>
-      <c r="I94">
-        <v>0.99422077397470654</v>
-      </c>
-      <c r="J94">
-        <v>0.99938091077525537</v>
-      </c>
-      <c r="K94">
-        <v>0.97068839808499363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>0.59764229578471062</v>
+      </c>
+      <c r="E94">
+        <v>0.63049162438406936</v>
+      </c>
+      <c r="F94">
+        <v>0.2102278714533686</v>
+      </c>
+      <c r="G94">
+        <v>0.60452357504986254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
-      <c r="H95">
-        <v>0.92389972515830654</v>
-      </c>
-      <c r="I95">
-        <v>0.97757336005084983</v>
-      </c>
-      <c r="J95">
-        <v>0.99815251477690625</v>
-      </c>
-      <c r="K95">
-        <v>0.92412496631979812</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>0.70107156053701192</v>
+      </c>
+      <c r="E95">
+        <v>0.67323400393442967</v>
+      </c>
+      <c r="F95">
+        <v>0.18186023384266081</v>
+      </c>
+      <c r="G95">
+        <v>0.72808227755129462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C96">
         <v>4</v>
       </c>
-      <c r="H96">
-        <v>0.93774179551394321</v>
-      </c>
-      <c r="I96">
-        <v>0.97080994564658751</v>
-      </c>
-      <c r="J96">
-        <v>0.99793608152648416</v>
-      </c>
-      <c r="K96">
-        <v>0.93913330164138686</v>
+      <c r="D96">
+        <v>0.60105664086497113</v>
+      </c>
+      <c r="E96">
+        <v>0.56372426299114209</v>
+      </c>
+      <c r="F96">
+        <v>0.23992958253325711</v>
+      </c>
+      <c r="G96">
+        <v>0.58173201037614697</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0.59945036070079005</v>
+      </c>
+      <c r="E97">
+        <v>0.59174153896749071</v>
+      </c>
+      <c r="F97">
+        <v>0.220042716947315</v>
+      </c>
+      <c r="G97">
+        <v>0.61382886017140703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0.61568332707002382</v>
+      </c>
+      <c r="E98">
+        <v>0.59211403167690768</v>
+      </c>
+      <c r="F98">
+        <v>0.20080044126711141</v>
+      </c>
+      <c r="G98">
+        <v>0.62391067595629601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>0.60752560133365086</v>
+      </c>
+      <c r="E99">
+        <v>0.60886760529681005</v>
+      </c>
+      <c r="F99">
+        <v>0.20030112621151869</v>
+      </c>
+      <c r="G99">
+        <v>0.62526142105016502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>0.63295972410395374</v>
+      </c>
+      <c r="E100">
+        <v>0.61297340000478662</v>
+      </c>
+      <c r="F100">
+        <v>0.196481020903475</v>
+      </c>
+      <c r="G100">
+        <v>0.6461560993433807</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>0.62820985379039196</v>
+      </c>
+      <c r="E101">
+        <v>0.52243731523711967</v>
+      </c>
+      <c r="F101">
+        <v>0.20294849023377701</v>
+      </c>
+      <c r="G101">
+        <v>0.62164640761693712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0.70491240123668841</v>
+      </c>
+      <c r="E102">
+        <v>0.70116007537164848</v>
+      </c>
+      <c r="F102">
+        <v>0.2022221577529956</v>
+      </c>
+      <c r="G102">
+        <v>0.72551586994327044</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0.6877113866967306</v>
+      </c>
+      <c r="E103">
+        <v>0.67861207014389691</v>
+      </c>
+      <c r="F103">
+        <v>0.18935194480315889</v>
+      </c>
+      <c r="G103">
+        <v>0.70895638735129596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>0.69111693260300067</v>
+      </c>
+      <c r="E104">
+        <v>0.70770981181737436</v>
+      </c>
+      <c r="F104">
+        <v>0.17973516935399569</v>
+      </c>
+      <c r="G104">
+        <v>0.71286731334640796</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>0.63172804532577909</v>
+      </c>
+      <c r="E105">
+        <v>0.60706370303301804</v>
+      </c>
+      <c r="F105">
+        <v>0.20118364128446681</v>
+      </c>
+      <c r="G105">
+        <v>0.64962255598587582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>0.66506941884752424</v>
+      </c>
+      <c r="E106">
+        <v>0.68937872861181182</v>
+      </c>
+      <c r="F106">
+        <v>0.18678068973077569</v>
+      </c>
+      <c r="G106">
+        <v>0.67453473767417205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0.72912930862721659</v>
+      </c>
+      <c r="E107">
+        <v>0.72679776239187766</v>
+      </c>
+      <c r="F107">
+        <v>0.18340926820327089</v>
+      </c>
+      <c r="G107">
+        <v>0.75511879921629343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0.66017496354926053</v>
+      </c>
+      <c r="E108">
+        <v>0.67543293600488374</v>
+      </c>
+      <c r="F108">
+        <v>0.18732349124428499</v>
+      </c>
+      <c r="G108">
+        <v>0.68862682603150693</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>0.65819646730709636</v>
+      </c>
+      <c r="E109">
+        <v>0.66342838532814308</v>
+      </c>
+      <c r="F109">
+        <v>0.2039409565495254</v>
+      </c>
+      <c r="G109">
+        <v>0.68161941348159805</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>0.69352306182531898</v>
+      </c>
+      <c r="E110">
+        <v>0.71010488675918237</v>
+      </c>
+      <c r="F110">
+        <v>0.18413276162139969</v>
+      </c>
+      <c r="G110">
+        <v>0.71825454914822751</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>0.72961764110863847</v>
+      </c>
+      <c r="E111">
+        <v>0.72961704169864872</v>
+      </c>
+      <c r="G111">
+        <v>0.76125927947856042</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0.73391113767682803</v>
+      </c>
+      <c r="E112">
+        <v>0.70274127671949504</v>
+      </c>
+      <c r="F112">
+        <v>0.18058711405156319</v>
+      </c>
+      <c r="G112">
+        <v>0.76082012700826429</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0.67694230368673192</v>
+      </c>
+      <c r="E113">
+        <v>0.69134907306757842</v>
+      </c>
+      <c r="F113">
+        <v>0.19184707911481511</v>
+      </c>
+      <c r="G113">
+        <v>0.69630442528005865</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>0.67472368556967255</v>
+      </c>
+      <c r="E114">
+        <v>0.67478801372554087</v>
+      </c>
+      <c r="F114">
+        <v>0.19524742124368549</v>
+      </c>
+      <c r="G114">
+        <v>0.70797211992903131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>0.69087340529931307</v>
+      </c>
+      <c r="E115">
+        <v>0.71224742781120109</v>
+      </c>
+      <c r="F115">
+        <v>0.18408853108527981</v>
+      </c>
+      <c r="G115">
+        <v>0.71113941592835439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>0.72759457819138174</v>
+      </c>
+      <c r="E116">
+        <v>0.71555132232680962</v>
+      </c>
+      <c r="G116">
+        <v>0.75832323066703333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0.73411038055389521</v>
+      </c>
+      <c r="E117">
+        <v>0.73058215158715023</v>
+      </c>
+      <c r="F117">
+        <v>0.1842140118941766</v>
+      </c>
+      <c r="G117">
+        <v>0.75852677635628651</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0.67735888356592378</v>
+      </c>
+      <c r="E118">
+        <v>0.67692857592252853</v>
+      </c>
+      <c r="F118">
+        <v>0.18171615218458859</v>
+      </c>
+      <c r="G118">
+        <v>0.7156164402156534</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>0.68525978721206482</v>
+      </c>
+      <c r="E119">
+        <v>0.69107847230438679</v>
+      </c>
+      <c r="F119">
+        <v>0.19083388209145111</v>
+      </c>
+      <c r="G119">
+        <v>0.70804469152568228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>0.69116781157998042</v>
+      </c>
+      <c r="E120">
+        <v>0.71023260087331597</v>
+      </c>
+      <c r="F120">
+        <v>0.1823113398742664</v>
+      </c>
+      <c r="G120">
+        <v>0.71143172699998369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>0.73073032571312968</v>
+      </c>
+      <c r="E121">
+        <v>0.72812585494984228</v>
+      </c>
+      <c r="G121">
+        <v>0.75617077678077227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0.66218370193265585</v>
+      </c>
+      <c r="E122">
+        <v>0.65346566385823412</v>
+      </c>
+      <c r="F122">
+        <v>0.2063272359167441</v>
+      </c>
+      <c r="G122">
+        <v>0.68873435047853748</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0.62611955842532807</v>
+      </c>
+      <c r="E123">
+        <v>0.62941438912687764</v>
+      </c>
+      <c r="F123">
+        <v>0.19741401100277939</v>
+      </c>
+      <c r="G123">
+        <v>0.65552010953654427</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>0.60964776366077889</v>
+      </c>
+      <c r="E124">
+        <v>0.62264480995854565</v>
+      </c>
+      <c r="F124">
+        <v>0.21117709766471671</v>
+      </c>
+      <c r="G124">
+        <v>0.63639332122213077</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>0.65387634936211969</v>
+      </c>
+      <c r="E125">
+        <v>0.64469974834654886</v>
+      </c>
+      <c r="F125">
+        <v>0.19775418849379189</v>
+      </c>
+      <c r="G125">
+        <v>0.6925814144776461</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>0.63493829658102363</v>
+      </c>
+      <c r="E126">
+        <v>0.63418957469979509</v>
+      </c>
+      <c r="G126">
+        <v>0.65713256384618546</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0.70402470611675627</v>
+      </c>
+      <c r="E127">
+        <v>0.63042173915984168</v>
+      </c>
+      <c r="F127">
+        <v>0.20441176345872411</v>
+      </c>
+      <c r="G127">
+        <v>0.72433744918977638</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0.66402832743178508</v>
+      </c>
+      <c r="E128">
+        <v>0.65783176144265609</v>
+      </c>
+      <c r="F128">
+        <v>0.190137446185077</v>
+      </c>
+      <c r="G128">
+        <v>0.68977681785097833</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>0.61223014151430633</v>
+      </c>
+      <c r="E129">
+        <v>0.63783599370992716</v>
+      </c>
+      <c r="F129">
+        <v>0.22320070854010141</v>
+      </c>
+      <c r="G129">
+        <v>0.62385590787399614</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>0.66172718351324833</v>
+      </c>
+      <c r="E130">
+        <v>0.66413087988091735</v>
+      </c>
+      <c r="F130">
+        <v>0.19547873823655049</v>
+      </c>
+      <c r="G130">
+        <v>0.67386548392686951</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>0.70311551689257534</v>
+      </c>
+      <c r="E131">
+        <v>0.67001595237734857</v>
+      </c>
+      <c r="G131">
+        <v>0.7398876099150411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0.66826060968320378</v>
+      </c>
+      <c r="E132">
+        <v>0.60805570539390885</v>
+      </c>
+      <c r="F132">
+        <v>0.21867581026077221</v>
+      </c>
+      <c r="G132">
+        <v>0.69350613321463761</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0.6662153717975422</v>
+      </c>
+      <c r="E133">
+        <v>0.63011024226152534</v>
+      </c>
+      <c r="F133">
+        <v>0.20122161235784819</v>
+      </c>
+      <c r="G133">
+        <v>0.70188199992251155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>0.62162999690114662</v>
+      </c>
+      <c r="E134">
+        <v>0.61653053772175337</v>
+      </c>
+      <c r="F134">
+        <v>0.20911566007035251</v>
+      </c>
+      <c r="G134">
+        <v>0.63136422773340439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>0.64789008832188422</v>
+      </c>
+      <c r="E135">
+        <v>0.66797834940358802</v>
+      </c>
+      <c r="F135">
+        <v>0.20504022839695399</v>
+      </c>
+      <c r="G135">
+        <v>0.63896345739293225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>0.65193202508598014</v>
+      </c>
+      <c r="E136">
+        <v>0.63151015726645243</v>
+      </c>
+      <c r="G136">
+        <v>0.68260622602893484</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0.72474596533173941</v>
+      </c>
+      <c r="E137">
+        <v>0.71990159274484966</v>
+      </c>
+      <c r="F137">
+        <v>0.18948052011353561</v>
+      </c>
+      <c r="G137">
+        <v>0.7451994649539504</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0.64757342220370762</v>
+      </c>
+      <c r="E138">
+        <v>0.65902252289188412</v>
+      </c>
+      <c r="F138">
+        <v>0.18998988894840921</v>
+      </c>
+      <c r="G138">
+        <v>0.66917620565996394</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>0.67689288296663563</v>
+      </c>
+      <c r="E139">
+        <v>0.67408563866924531</v>
+      </c>
+      <c r="F139">
+        <v>0.1956651098271493</v>
+      </c>
+      <c r="G139">
+        <v>0.70510291499274202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>0.66967615309126594</v>
+      </c>
+      <c r="E140">
+        <v>0.68923346418726583</v>
+      </c>
+      <c r="F140">
+        <v>0.1854362877809819</v>
+      </c>
+      <c r="G140">
+        <v>0.69026852357073498</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>0.72172769573133722</v>
+      </c>
+      <c r="E141">
+        <v>0.71185065290051541</v>
+      </c>
+      <c r="G141">
+        <v>0.75219922754378854</v>
       </c>
     </row>
   </sheetData>
